--- a/EC/Train Runs and Enforcements 2016-07-06.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-06.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2691,7 +2691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2984,33 +2984,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -3413,7 +3393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM209"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3807,6 +3789,10 @@
       <c r="N11" s="110"/>
       <c r="O11" s="110"/>
       <c r="P11" s="110"/>
+      <c r="S11" s="120">
+        <f>AVERAGE(S13:S999)</f>
+        <v>0.98135198135198143</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
@@ -23557,37 +23543,37 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="14" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="75" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="13" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="58" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="12" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14 A13:J13 L13:S13 A15:J139 A141:J156 K15:S209">
-    <cfRule type="expression" dxfId="11" priority="51">
+    <cfRule type="expression" dxfId="8" priority="51">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14 A13:J13 L13:S13 A15:J139 A141:J156 K15:S209">
-    <cfRule type="expression" dxfId="10" priority="50">
+    <cfRule type="expression" dxfId="7" priority="50">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23632,7 +23618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -30714,17 +30700,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 M7:M1048576 P6">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L110:N127 A7:N109">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31808,11 +31794,11 @@
         <v>148</v>
       </c>
       <c r="F1" s="33" t="str">
-        <f>B1</f>
+        <f t="shared" ref="F1:F64" si="0">B1</f>
         <v>rtdc.l.rtdc.4042:itc</v>
       </c>
       <c r="G1" s="8">
-        <f>A1</f>
+        <f t="shared" ref="G1:G64" si="1">A1</f>
         <v>42557.131574074076</v>
       </c>
     </row>
@@ -31833,11 +31819,11 @@
         <v>119</v>
       </c>
       <c r="F2" s="33" t="str">
-        <f>B2</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4007:itc</v>
       </c>
       <c r="G2" s="8">
-        <f>A2</f>
+        <f t="shared" si="1"/>
         <v>42558.129189814812</v>
       </c>
     </row>
@@ -31858,11 +31844,11 @@
         <v>119</v>
       </c>
       <c r="F3" s="33" t="str">
-        <f>B3</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4007:itc</v>
       </c>
       <c r="G3" s="8">
-        <f>A3</f>
+        <f t="shared" si="1"/>
         <v>42558.130416666667</v>
       </c>
     </row>
@@ -31883,11 +31869,11 @@
         <v>148</v>
       </c>
       <c r="F4" s="33" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G4" s="8">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>42557.16165509259</v>
       </c>
     </row>
@@ -31908,11 +31894,11 @@
         <v>119</v>
       </c>
       <c r="F5" s="33" t="str">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G5" s="8">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>42558.171157407407</v>
       </c>
     </row>
@@ -31933,11 +31919,11 @@
         <v>119</v>
       </c>
       <c r="F6" s="33" t="str">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G6" s="8">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>42558.183541666665</v>
       </c>
     </row>
@@ -31958,11 +31944,11 @@
         <v>263</v>
       </c>
       <c r="F7" s="33" t="str">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G7" s="8">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>42557.155034722222</v>
       </c>
     </row>
@@ -31983,11 +31969,11 @@
         <v>263</v>
       </c>
       <c r="F8" s="33" t="str">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G8" s="8">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v>42558.154085648152</v>
       </c>
     </row>
@@ -32008,11 +31994,11 @@
         <v>263</v>
       </c>
       <c r="F9" s="33" t="str">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G9" s="8">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v>42558.160578703704</v>
       </c>
     </row>
@@ -32033,11 +32019,11 @@
         <v>263</v>
       </c>
       <c r="F10" s="33" t="str">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G10" s="8">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v>42557.192974537036</v>
       </c>
     </row>
@@ -32058,11 +32044,11 @@
         <v>263</v>
       </c>
       <c r="F11" s="33" t="str">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G11" s="8">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>42558.194907407407</v>
       </c>
     </row>
@@ -32083,11 +32069,11 @@
         <v>410</v>
       </c>
       <c r="F12" s="33" t="str">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G12" s="8">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>42557.170798611114</v>
       </c>
     </row>
@@ -32108,11 +32094,11 @@
         <v>148</v>
       </c>
       <c r="F13" s="33" t="str">
-        <f>B13</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G13" s="8">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>42558.171319444446</v>
       </c>
     </row>
@@ -32133,11 +32119,11 @@
         <v>410</v>
       </c>
       <c r="F14" s="33" t="str">
-        <f>B14</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G14" s="8">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>42557.213877314818</v>
       </c>
     </row>
@@ -32158,11 +32144,11 @@
         <v>148</v>
       </c>
       <c r="F15" s="33" t="str">
-        <f>B15</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G15" s="8">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>42558.205914351849</v>
       </c>
     </row>
@@ -32183,11 +32169,11 @@
         <v>148</v>
       </c>
       <c r="F16" s="33" t="str">
-        <f>B16</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G16" s="8">
-        <f>A16</f>
+        <f t="shared" si="1"/>
         <v>42558.204930555556</v>
       </c>
     </row>
@@ -32208,11 +32194,11 @@
         <v>422</v>
       </c>
       <c r="F17" s="33" t="str">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G17" s="8">
-        <f>A17</f>
+        <f t="shared" si="1"/>
         <v>42557.181527777779</v>
       </c>
     </row>
@@ -32233,11 +32219,11 @@
         <v>255</v>
       </c>
       <c r="F18" s="33" t="str">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G18" s="8">
-        <f>A18</f>
+        <f t="shared" si="1"/>
         <v>42558.188043981485</v>
       </c>
     </row>
@@ -32258,11 +32244,11 @@
         <v>255</v>
       </c>
       <c r="F19" s="33" t="str">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G19" s="8">
-        <f>A19</f>
+        <f t="shared" si="1"/>
         <v>42558.189386574071</v>
       </c>
     </row>
@@ -32283,11 +32269,11 @@
         <v>422</v>
       </c>
       <c r="F20" s="33" t="str">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G20" s="8">
-        <f>A20</f>
+        <f t="shared" si="1"/>
         <v>42557.224004629628</v>
       </c>
     </row>
@@ -32308,11 +32294,11 @@
         <v>255</v>
       </c>
       <c r="F21" s="33" t="str">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G21" s="8">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>42558.215891203705</v>
       </c>
     </row>
@@ -32333,11 +32319,11 @@
         <v>204</v>
       </c>
       <c r="F22" s="33" t="str">
-        <f>B22</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G22" s="8">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>42557.186944444446</v>
       </c>
     </row>
@@ -32358,11 +32344,11 @@
         <v>422</v>
       </c>
       <c r="F23" s="33" t="str">
-        <f>B23</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G23" s="8">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>42558.196435185186</v>
       </c>
     </row>
@@ -32383,11 +32369,11 @@
         <v>204</v>
       </c>
       <c r="F24" s="33" t="str">
-        <f>B24</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G24" s="8">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>42557.227280092593</v>
       </c>
     </row>
@@ -32408,11 +32394,11 @@
         <v>422</v>
       </c>
       <c r="F25" s="33" t="str">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G25" s="8">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>42558.234710648147</v>
       </c>
     </row>
@@ -32433,11 +32419,11 @@
         <v>151</v>
       </c>
       <c r="F26" s="33" t="str">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4042:itc</v>
       </c>
       <c r="G26" s="8">
-        <f>A26</f>
+        <f t="shared" si="1"/>
         <v>42557.205520833333</v>
       </c>
     </row>
@@ -32458,11 +32444,11 @@
         <v>410</v>
       </c>
       <c r="F27" s="33" t="str">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4007:itc</v>
       </c>
       <c r="G27" s="8">
-        <f>A27</f>
+        <f t="shared" si="1"/>
         <v>42558.209606481483</v>
       </c>
     </row>
@@ -32483,11 +32469,11 @@
         <v>151</v>
       </c>
       <c r="F28" s="33" t="str">
-        <f>B28</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4041:itc</v>
       </c>
       <c r="G28" s="8">
-        <f>A28</f>
+        <f t="shared" si="1"/>
         <v>42557.243148148147</v>
       </c>
     </row>
@@ -32508,11 +32494,11 @@
         <v>410</v>
       </c>
       <c r="F29" s="33" t="str">
-        <f>B29</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4008:itc</v>
       </c>
       <c r="G29" s="8">
-        <f>A29</f>
+        <f t="shared" si="1"/>
         <v>42558.246435185189</v>
       </c>
     </row>
@@ -32533,11 +32519,11 @@
         <v>148</v>
       </c>
       <c r="F30" s="33" t="str">
-        <f>B30</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G30" s="8">
-        <f>A30</f>
+        <f t="shared" si="1"/>
         <v>42557.208391203705</v>
       </c>
     </row>
@@ -32558,11 +32544,11 @@
         <v>148</v>
       </c>
       <c r="F31" s="33" t="str">
-        <f>B31</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G31" s="8">
-        <f>A31</f>
+        <f t="shared" si="1"/>
         <v>42557.209502314814</v>
       </c>
     </row>
@@ -32583,11 +32569,11 @@
         <v>119</v>
       </c>
       <c r="F32" s="33" t="str">
-        <f>B32</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G32" s="8">
-        <f>A32</f>
+        <f t="shared" si="1"/>
         <v>42558.213460648149</v>
       </c>
     </row>
@@ -32608,11 +32594,11 @@
         <v>148</v>
       </c>
       <c r="F33" s="33" t="str">
-        <f>B33</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G33" s="8">
-        <f>A33</f>
+        <f t="shared" si="1"/>
         <v>42557.244884259257</v>
       </c>
     </row>
@@ -32633,11 +32619,11 @@
         <v>119</v>
       </c>
       <c r="F34" s="33" t="str">
-        <f>B34</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G34" s="8">
-        <f>A34</f>
+        <f t="shared" si="1"/>
         <v>42558.255219907405</v>
       </c>
     </row>
@@ -32658,11 +32644,11 @@
         <v>142</v>
       </c>
       <c r="F35" s="33" t="str">
-        <f>B35</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G35" s="8">
-        <f>A35</f>
+        <f t="shared" si="1"/>
         <v>42557.228993055556</v>
       </c>
     </row>
@@ -32683,11 +32669,11 @@
         <v>121</v>
       </c>
       <c r="F36" s="33" t="str">
-        <f>B36</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G36" s="8">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>42558.227199074077</v>
       </c>
     </row>
@@ -32708,11 +32694,11 @@
         <v>142</v>
       </c>
       <c r="F37" s="33" t="str">
-        <f>B37</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G37" s="8">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>42557.266655092593</v>
       </c>
     </row>
@@ -32733,11 +32719,11 @@
         <v>121</v>
       </c>
       <c r="F38" s="33" t="str">
-        <f>B38</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G38" s="8">
-        <f>A38</f>
+        <f t="shared" si="1"/>
         <v>42558.267141203702</v>
       </c>
     </row>
@@ -32758,11 +32744,11 @@
         <v>263</v>
       </c>
       <c r="F39" s="33" t="str">
-        <f>B39</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G39" s="8">
-        <f>A39</f>
+        <f t="shared" si="1"/>
         <v>42557.235046296293</v>
       </c>
     </row>
@@ -32783,11 +32769,11 @@
         <v>263</v>
       </c>
       <c r="F40" s="33" t="str">
-        <f>B40</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G40" s="8">
-        <f>A40</f>
+        <f t="shared" si="1"/>
         <v>42558.227905092594</v>
       </c>
     </row>
@@ -32808,11 +32794,11 @@
         <v>263</v>
       </c>
       <c r="F41" s="33" t="str">
-        <f>B41</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G41" s="8">
-        <f>A41</f>
+        <f t="shared" si="1"/>
         <v>42557.277048611111</v>
       </c>
     </row>
@@ -32833,11 +32819,11 @@
         <v>263</v>
       </c>
       <c r="F42" s="33" t="str">
-        <f>B42</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G42" s="8">
-        <f>A42</f>
+        <f t="shared" si="1"/>
         <v>42558.277696759258</v>
       </c>
     </row>
@@ -32858,11 +32844,11 @@
         <v>410</v>
       </c>
       <c r="F43" s="33" t="str">
-        <f>B43</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G43" s="8">
-        <f>A43</f>
+        <f t="shared" si="1"/>
         <v>42557.248344907406</v>
       </c>
     </row>
@@ -32883,11 +32869,11 @@
         <v>148</v>
       </c>
       <c r="F44" s="33" t="str">
-        <f>B44</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G44" s="8">
-        <f>A44</f>
+        <f t="shared" si="1"/>
         <v>42558.24790509259</v>
       </c>
     </row>
@@ -32908,11 +32894,11 @@
         <v>410</v>
       </c>
       <c r="F45" s="33" t="str">
-        <f>B45</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G45" s="8">
-        <f>A45</f>
+        <f t="shared" si="1"/>
         <v>42557.285682870373</v>
       </c>
     </row>
@@ -32933,11 +32919,11 @@
         <v>148</v>
       </c>
       <c r="F46" s="33" t="str">
-        <f>B46</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G46" s="8">
-        <f>A46</f>
+        <f t="shared" si="1"/>
         <v>42558.27747685185</v>
       </c>
     </row>
@@ -32958,11 +32944,11 @@
         <v>203</v>
       </c>
       <c r="F47" s="33" t="str">
-        <f>B47</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G47" s="8">
-        <f>A47</f>
+        <f t="shared" si="1"/>
         <v>42557.256886574076</v>
       </c>
     </row>
@@ -32983,11 +32969,11 @@
         <v>255</v>
       </c>
       <c r="F48" s="33" t="str">
-        <f>B48</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G48" s="8">
-        <f>A48</f>
+        <f t="shared" si="1"/>
         <v>42558.257916666669</v>
       </c>
     </row>
@@ -33008,11 +32994,11 @@
         <v>255</v>
       </c>
       <c r="F49" s="33" t="str">
-        <f>B49</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G49" s="8">
-        <f>A49</f>
+        <f t="shared" si="1"/>
         <v>42558.255937499998</v>
       </c>
     </row>
@@ -33033,11 +33019,11 @@
         <v>422</v>
       </c>
       <c r="F50" s="33" t="str">
-        <f>B50</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G50" s="8">
-        <f>A50</f>
+        <f t="shared" si="1"/>
         <v>42557.29414351852</v>
       </c>
     </row>
@@ -33058,11 +33044,11 @@
         <v>255</v>
       </c>
       <c r="F51" s="33" t="str">
-        <f>B51</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G51" s="8">
-        <f>A51</f>
+        <f t="shared" si="1"/>
         <v>42558.286898148152</v>
       </c>
     </row>
@@ -33083,11 +33069,11 @@
         <v>204</v>
       </c>
       <c r="F52" s="33" t="str">
-        <f>B52</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G52" s="8">
-        <f>A52</f>
+        <f t="shared" si="1"/>
         <v>42557.267141203702</v>
       </c>
     </row>
@@ -33108,11 +33094,11 @@
         <v>422</v>
       </c>
       <c r="F53" s="33" t="str">
-        <f>B53</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G53" s="8">
-        <f>A53</f>
+        <f t="shared" si="1"/>
         <v>42558.267129629632</v>
       </c>
     </row>
@@ -33133,11 +33119,11 @@
         <v>204</v>
       </c>
       <c r="F54" s="33" t="str">
-        <f>B54</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G54" s="8">
-        <f>A54</f>
+        <f t="shared" si="1"/>
         <v>42557.304872685185</v>
       </c>
     </row>
@@ -33158,11 +33144,11 @@
         <v>151</v>
       </c>
       <c r="F55" s="33" t="str">
-        <f>B55</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4042:itc</v>
       </c>
       <c r="G55" s="8">
-        <f>A55</f>
+        <f t="shared" si="1"/>
         <v>42557.278368055559</v>
       </c>
     </row>
@@ -33183,11 +33169,11 @@
         <v>410</v>
       </c>
       <c r="F56" s="33" t="str">
-        <f>B56</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4007:itc</v>
       </c>
       <c r="G56" s="8">
-        <f>A56</f>
+        <f t="shared" si="1"/>
         <v>42558.275960648149</v>
       </c>
     </row>
@@ -33208,11 +33194,11 @@
         <v>151</v>
       </c>
       <c r="F57" s="33" t="str">
-        <f>B57</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4041:itc</v>
       </c>
       <c r="G57" s="8">
-        <f>A57</f>
+        <f t="shared" si="1"/>
         <v>42557.317164351851</v>
       </c>
     </row>
@@ -33233,11 +33219,11 @@
         <v>148</v>
       </c>
       <c r="F58" s="33" t="str">
-        <f>B58</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G58" s="8">
-        <f>A58</f>
+        <f t="shared" si="1"/>
         <v>42557.284907407404</v>
       </c>
     </row>
@@ -33258,11 +33244,11 @@
         <v>119</v>
       </c>
       <c r="F59" s="33" t="str">
-        <f>B59</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G59" s="8">
-        <f>A59</f>
+        <f t="shared" si="1"/>
         <v>42558.286469907405</v>
       </c>
     </row>
@@ -33283,11 +33269,11 @@
         <v>148</v>
       </c>
       <c r="F60" s="33" t="str">
-        <f>B60</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G60" s="8">
-        <f>A60</f>
+        <f t="shared" si="1"/>
         <v>42557.31763888889</v>
       </c>
     </row>
@@ -33308,11 +33294,11 @@
         <v>142</v>
       </c>
       <c r="F61" s="33" t="str">
-        <f>B61</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G61" s="8">
-        <f>A61</f>
+        <f t="shared" si="1"/>
         <v>42557.300266203703</v>
       </c>
     </row>
@@ -33333,11 +33319,11 @@
         <v>142</v>
       </c>
       <c r="F62" s="33" t="str">
-        <f>B62</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G62" s="8">
-        <f>A62</f>
+        <f t="shared" si="1"/>
         <v>42557.333032407405</v>
       </c>
     </row>
@@ -33358,11 +33344,11 @@
         <v>263</v>
       </c>
       <c r="F63" s="33" t="str">
-        <f>B63</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G63" s="8">
-        <f>A63</f>
+        <f t="shared" si="1"/>
         <v>42557.310057870367</v>
       </c>
     </row>
@@ -33383,11 +33369,11 @@
         <v>263</v>
       </c>
       <c r="F64" s="33" t="str">
-        <f>B64</f>
+        <f t="shared" si="0"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G64" s="8">
-        <f>A64</f>
+        <f t="shared" si="1"/>
         <v>42557.350416666668</v>
       </c>
     </row>
@@ -33408,11 +33394,11 @@
         <v>410</v>
       </c>
       <c r="F65" s="33" t="str">
-        <f>B65</f>
+        <f t="shared" ref="F65:F128" si="2">B65</f>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G65" s="8">
-        <f>A65</f>
+        <f t="shared" ref="G65:G128" si="3">A65</f>
         <v>42557.317974537036</v>
       </c>
     </row>
@@ -33433,11 +33419,11 @@
         <v>410</v>
       </c>
       <c r="F66" s="33" t="str">
-        <f>B66</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G66" s="8">
-        <f>A66</f>
+        <f t="shared" si="3"/>
         <v>42557.356527777774</v>
       </c>
     </row>
@@ -33458,11 +33444,11 @@
         <v>203</v>
       </c>
       <c r="F67" s="33" t="str">
-        <f>B67</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G67" s="8">
-        <f>A67</f>
+        <f t="shared" si="3"/>
         <v>42557.330937500003</v>
       </c>
     </row>
@@ -33483,11 +33469,11 @@
         <v>422</v>
       </c>
       <c r="F68" s="33" t="str">
-        <f>B68</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G68" s="8">
-        <f>A68</f>
+        <f t="shared" si="3"/>
         <v>42557.369432870371</v>
       </c>
     </row>
@@ -33508,11 +33494,11 @@
         <v>204</v>
       </c>
       <c r="F69" s="33" t="str">
-        <f>B69</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G69" s="8">
-        <f>A69</f>
+        <f t="shared" si="3"/>
         <v>42557.337523148148</v>
       </c>
     </row>
@@ -33533,11 +33519,11 @@
         <v>204</v>
       </c>
       <c r="F70" s="33" t="str">
-        <f>B70</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G70" s="8">
-        <f>A70</f>
+        <f t="shared" si="3"/>
         <v>42557.37809027778</v>
       </c>
     </row>
@@ -33558,11 +33544,11 @@
         <v>151</v>
       </c>
       <c r="F71" s="33" t="str">
-        <f>B71</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4042:itc</v>
       </c>
       <c r="G71" s="8">
-        <f>A71</f>
+        <f t="shared" si="3"/>
         <v>42557.352326388886</v>
       </c>
     </row>
@@ -33583,11 +33569,11 @@
         <v>151</v>
       </c>
       <c r="F72" s="33" t="str">
-        <f>B72</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4041:itc</v>
       </c>
       <c r="G72" s="8">
-        <f>A72</f>
+        <f t="shared" si="3"/>
         <v>42557.389745370368</v>
       </c>
     </row>
@@ -33608,11 +33594,11 @@
         <v>148</v>
       </c>
       <c r="F73" s="33" t="str">
-        <f>B73</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G73" s="8">
-        <f>A73</f>
+        <f t="shared" si="3"/>
         <v>42557.357951388891</v>
       </c>
     </row>
@@ -33633,11 +33619,11 @@
         <v>148</v>
       </c>
       <c r="F74" s="33" t="str">
-        <f>B74</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G74" s="8">
-        <f>A74</f>
+        <f t="shared" si="3"/>
         <v>42557.390347222223</v>
       </c>
     </row>
@@ -33658,11 +33644,11 @@
         <v>142</v>
       </c>
       <c r="F75" s="33" t="str">
-        <f>B75</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G75" s="8">
-        <f>A75</f>
+        <f t="shared" si="3"/>
         <v>42557.369502314818</v>
       </c>
     </row>
@@ -33683,11 +33669,11 @@
         <v>142</v>
       </c>
       <c r="F76" s="33" t="str">
-        <f>B76</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G76" s="8">
-        <f>A76</f>
+        <f t="shared" si="3"/>
         <v>42557.36824074074</v>
       </c>
     </row>
@@ -33708,11 +33694,11 @@
         <v>142</v>
       </c>
       <c r="F77" s="33" t="str">
-        <f>B77</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G77" s="8">
-        <f>A77</f>
+        <f t="shared" si="3"/>
         <v>42557.4065625</v>
       </c>
     </row>
@@ -33733,11 +33719,11 @@
         <v>263</v>
       </c>
       <c r="F78" s="33" t="str">
-        <f>B78</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G78" s="8">
-        <f>A78</f>
+        <f t="shared" si="3"/>
         <v>42557.382638888892</v>
       </c>
     </row>
@@ -33758,11 +33744,11 @@
         <v>410</v>
       </c>
       <c r="F79" s="33" t="str">
-        <f>B79</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G79" s="8">
-        <f>A79</f>
+        <f t="shared" si="3"/>
         <v>42557.392002314817</v>
       </c>
     </row>
@@ -33783,11 +33769,11 @@
         <v>410</v>
       </c>
       <c r="F80" s="33" t="str">
-        <f>B80</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G80" s="8">
-        <f>A80</f>
+        <f t="shared" si="3"/>
         <v>42557.4297337963</v>
       </c>
     </row>
@@ -33808,11 +33794,11 @@
         <v>422</v>
       </c>
       <c r="F81" s="33" t="str">
-        <f>B81</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G81" s="8">
-        <f>A81</f>
+        <f t="shared" si="3"/>
         <v>42557.400509259256</v>
       </c>
     </row>
@@ -33833,11 +33819,11 @@
         <v>422</v>
       </c>
       <c r="F82" s="33" t="str">
-        <f>B82</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G82" s="8">
-        <f>A82</f>
+        <f t="shared" si="3"/>
         <v>42557.440949074073</v>
       </c>
     </row>
@@ -33858,11 +33844,11 @@
         <v>204</v>
       </c>
       <c r="F83" s="33" t="str">
-        <f>B83</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G83" s="8">
-        <f>A83</f>
+        <f t="shared" si="3"/>
         <v>42557.411458333336</v>
       </c>
     </row>
@@ -33883,11 +33869,11 @@
         <v>204</v>
       </c>
       <c r="F84" s="33" t="str">
-        <f>B84</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G84" s="8">
-        <f>A84</f>
+        <f t="shared" si="3"/>
         <v>42557.451643518521</v>
       </c>
     </row>
@@ -33908,11 +33894,11 @@
         <v>143</v>
       </c>
       <c r="F85" s="33" t="str">
-        <f>B85</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4042:itc</v>
       </c>
       <c r="G85" s="8">
-        <f>A85</f>
+        <f t="shared" si="3"/>
         <v>42557.426782407405</v>
       </c>
     </row>
@@ -33933,11 +33919,11 @@
         <v>143</v>
       </c>
       <c r="F86" s="33" t="str">
-        <f>B86</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4041:itc</v>
       </c>
       <c r="G86" s="8">
-        <f>A86</f>
+        <f t="shared" si="3"/>
         <v>42557.461631944447</v>
       </c>
     </row>
@@ -33958,11 +33944,11 @@
         <v>151</v>
       </c>
       <c r="F87" s="33" t="str">
-        <f>B87</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G87" s="8">
-        <f>A87</f>
+        <f t="shared" si="3"/>
         <v>42557.435127314813</v>
       </c>
     </row>
@@ -33983,11 +33969,11 @@
         <v>151</v>
       </c>
       <c r="F88" s="33" t="str">
-        <f>B88</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G88" s="8">
-        <f>A88</f>
+        <f t="shared" si="3"/>
         <v>42557.474317129629</v>
       </c>
     </row>
@@ -34008,11 +33994,11 @@
         <v>415</v>
       </c>
       <c r="F89" s="33" t="str">
-        <f>B89</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G89" s="8">
-        <f>A89</f>
+        <f t="shared" si="3"/>
         <v>42557.442777777775</v>
       </c>
     </row>
@@ -34033,11 +34019,11 @@
         <v>415</v>
       </c>
       <c r="F90" s="33" t="str">
-        <f>B90</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G90" s="8">
-        <f>A90</f>
+        <f t="shared" si="3"/>
         <v>42557.475555555553</v>
       </c>
     </row>
@@ -34058,11 +34044,11 @@
         <v>142</v>
       </c>
       <c r="F91" s="33" t="str">
-        <f>B91</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G91" s="8">
-        <f>A91</f>
+        <f t="shared" si="3"/>
         <v>42557.458495370367</v>
       </c>
     </row>
@@ -34083,11 +34069,11 @@
         <v>142</v>
       </c>
       <c r="F92" s="33" t="str">
-        <f>B92</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G92" s="8">
-        <f>A92</f>
+        <f t="shared" si="3"/>
         <v>42557.49324074074</v>
       </c>
     </row>
@@ -34108,11 +34094,11 @@
         <v>258</v>
       </c>
       <c r="F93" s="33" t="str">
-        <f>B93</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G93" s="8">
-        <f>A93</f>
+        <f t="shared" si="3"/>
         <v>42557.464930555558</v>
       </c>
     </row>
@@ -34133,11 +34119,11 @@
         <v>258</v>
       </c>
       <c r="F94" s="33" t="str">
-        <f>B94</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G94" s="8">
-        <f>A94</f>
+        <f t="shared" si="3"/>
         <v>42557.505115740743</v>
       </c>
     </row>
@@ -34158,11 +34144,11 @@
         <v>246</v>
       </c>
       <c r="F95" s="33" t="str">
-        <f>B95</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G95" s="8">
-        <f>A95</f>
+        <f t="shared" si="3"/>
         <v>42557.47550925926</v>
       </c>
     </row>
@@ -34183,11 +34169,11 @@
         <v>246</v>
       </c>
       <c r="F96" s="33" t="str">
-        <f>B96</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G96" s="8">
-        <f>A96</f>
+        <f t="shared" si="3"/>
         <v>42557.513657407406</v>
       </c>
     </row>
@@ -34208,11 +34194,11 @@
         <v>206</v>
       </c>
       <c r="F97" s="33" t="str">
-        <f>B97</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G97" s="8">
-        <f>A97</f>
+        <f t="shared" si="3"/>
         <v>42557.485046296293</v>
       </c>
     </row>
@@ -34233,11 +34219,11 @@
         <v>206</v>
       </c>
       <c r="F98" s="33" t="str">
-        <f>B98</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G98" s="8">
-        <f>A98</f>
+        <f t="shared" si="3"/>
         <v>42557.525949074072</v>
       </c>
     </row>
@@ -34258,11 +34244,11 @@
         <v>515</v>
       </c>
       <c r="F99" s="33" t="str">
-        <f>B99</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G99" s="8">
-        <f>A99</f>
+        <f t="shared" si="3"/>
         <v>42557.483564814815</v>
       </c>
     </row>
@@ -34283,11 +34269,11 @@
         <v>143</v>
       </c>
       <c r="F100" s="33" t="str">
-        <f>B100</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G100" s="8">
-        <f>A100</f>
+        <f t="shared" si="3"/>
         <v>42557.534594907411</v>
       </c>
     </row>
@@ -34308,11 +34294,11 @@
         <v>149</v>
       </c>
       <c r="F101" s="33" t="str">
-        <f>B101</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G101" s="8">
-        <f>A101</f>
+        <f t="shared" si="3"/>
         <v>42557.510833333334</v>
       </c>
     </row>
@@ -34333,11 +34319,11 @@
         <v>149</v>
       </c>
       <c r="F102" s="33" t="str">
-        <f>B102</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G102" s="8">
-        <f>A102</f>
+        <f t="shared" si="3"/>
         <v>42557.544999999998</v>
       </c>
     </row>
@@ -34358,11 +34344,11 @@
         <v>415</v>
       </c>
       <c r="F103" s="33" t="str">
-        <f>B103</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G103" s="8">
-        <f>A103</f>
+        <f t="shared" si="3"/>
         <v>42557.51840277778</v>
       </c>
     </row>
@@ -34383,11 +34369,11 @@
         <v>415</v>
       </c>
       <c r="F104" s="33" t="str">
-        <f>B104</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G104" s="8">
-        <f>A104</f>
+        <f t="shared" si="3"/>
         <v>42557.555914351855</v>
       </c>
     </row>
@@ -34408,11 +34394,11 @@
         <v>144</v>
       </c>
       <c r="F105" s="33" t="str">
-        <f>B105</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G105" s="8">
-        <f>A105</f>
+        <f t="shared" si="3"/>
         <v>42557.529016203705</v>
       </c>
     </row>
@@ -34433,11 +34419,11 @@
         <v>144</v>
       </c>
       <c r="F106" s="33" t="str">
-        <f>B106</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G106" s="8">
-        <f>A106</f>
+        <f t="shared" si="3"/>
         <v>42557.565613425926</v>
       </c>
     </row>
@@ -34458,11 +34444,11 @@
         <v>258</v>
       </c>
       <c r="F107" s="33" t="str">
-        <f>B107</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G107" s="8">
-        <f>A107</f>
+        <f t="shared" si="3"/>
         <v>42557.53633101852</v>
       </c>
     </row>
@@ -34483,11 +34469,11 @@
         <v>258</v>
       </c>
       <c r="F108" s="33" t="str">
-        <f>B108</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G108" s="8">
-        <f>A108</f>
+        <f t="shared" si="3"/>
         <v>42557.577893518515</v>
       </c>
     </row>
@@ -34508,11 +34494,11 @@
         <v>246</v>
       </c>
       <c r="F109" s="33" t="str">
-        <f>B109</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G109" s="8">
-        <f>A109</f>
+        <f t="shared" si="3"/>
         <v>42557.547754629632</v>
       </c>
     </row>
@@ -34533,11 +34519,11 @@
         <v>246</v>
       </c>
       <c r="F110" s="33" t="str">
-        <f>B110</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G110" s="8">
-        <f>A110</f>
+        <f t="shared" si="3"/>
         <v>42557.566041666665</v>
       </c>
     </row>
@@ -34558,11 +34544,11 @@
         <v>246</v>
       </c>
       <c r="F111" s="33" t="str">
-        <f>B111</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G111" s="8">
-        <f>A111</f>
+        <f t="shared" si="3"/>
         <v>42557.585798611108</v>
       </c>
     </row>
@@ -34583,11 +34569,11 @@
         <v>206</v>
       </c>
       <c r="F112" s="33" t="str">
-        <f>B112</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G112" s="8">
-        <f>A112</f>
+        <f t="shared" si="3"/>
         <v>42557.559328703705</v>
       </c>
     </row>
@@ -34608,11 +34594,11 @@
         <v>206</v>
       </c>
       <c r="F113" s="33" t="str">
-        <f>B113</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G113" s="8">
-        <f>A113</f>
+        <f t="shared" si="3"/>
         <v>42557.598773148151</v>
       </c>
     </row>
@@ -34633,11 +34619,11 @@
         <v>143</v>
       </c>
       <c r="F114" s="33" t="str">
-        <f>B114</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G114" s="8">
-        <f>A114</f>
+        <f t="shared" si="3"/>
         <v>42557.566932870373</v>
       </c>
     </row>
@@ -34658,11 +34644,11 @@
         <v>143</v>
       </c>
       <c r="F115" s="33" t="str">
-        <f>B115</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G115" s="8">
-        <f>A115</f>
+        <f t="shared" si="3"/>
         <v>42557.605312500003</v>
       </c>
     </row>
@@ -34683,11 +34669,11 @@
         <v>149</v>
       </c>
       <c r="F116" s="33" t="str">
-        <f>B116</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G116" s="8">
-        <f>A116</f>
+        <f t="shared" si="3"/>
         <v>42557.580138888887</v>
       </c>
     </row>
@@ -34708,11 +34694,11 @@
         <v>149</v>
       </c>
       <c r="F117" s="33" t="str">
-        <f>B117</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G117" s="8">
-        <f>A117</f>
+        <f t="shared" si="3"/>
         <v>42557.619293981479</v>
       </c>
     </row>
@@ -34733,11 +34719,11 @@
         <v>447</v>
       </c>
       <c r="F118" s="33" t="str">
-        <f>B118</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G118" s="8">
-        <f>A118</f>
+        <f t="shared" si="3"/>
         <v>42557.59103009259</v>
       </c>
     </row>
@@ -34758,11 +34744,11 @@
         <v>447</v>
       </c>
       <c r="F119" s="33" t="str">
-        <f>B119</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G119" s="8">
-        <f>A119</f>
+        <f t="shared" si="3"/>
         <v>42557.623622685183</v>
       </c>
     </row>
@@ -34783,11 +34769,11 @@
         <v>144</v>
       </c>
       <c r="F120" s="33" t="str">
-        <f>B120</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G120" s="8">
-        <f>A120</f>
+        <f t="shared" si="3"/>
         <v>42557.603090277778</v>
       </c>
     </row>
@@ -34808,11 +34794,11 @@
         <v>144</v>
       </c>
       <c r="F121" s="33" t="str">
-        <f>B121</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G121" s="8">
-        <f>A121</f>
+        <f t="shared" si="3"/>
         <v>42557.639733796299</v>
       </c>
     </row>
@@ -34833,11 +34819,11 @@
         <v>258</v>
       </c>
       <c r="F122" s="33" t="str">
-        <f>B122</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G122" s="8">
-        <f>A122</f>
+        <f t="shared" si="3"/>
         <v>42557.611111111109</v>
       </c>
     </row>
@@ -34858,11 +34844,11 @@
         <v>258</v>
       </c>
       <c r="F123" s="33" t="str">
-        <f>B123</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G123" s="8">
-        <f>A123</f>
+        <f t="shared" si="3"/>
         <v>42557.65179398148</v>
       </c>
     </row>
@@ -34883,11 +34869,11 @@
         <v>246</v>
       </c>
       <c r="F124" s="33" t="str">
-        <f>B124</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G124" s="8">
-        <f>A124</f>
+        <f t="shared" si="3"/>
         <v>42557.619803240741</v>
       </c>
     </row>
@@ -34908,11 +34894,11 @@
         <v>246</v>
       </c>
       <c r="F125" s="33" t="str">
-        <f>B125</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G125" s="8">
-        <f>A125</f>
+        <f t="shared" si="3"/>
         <v>42557.65693287037</v>
       </c>
     </row>
@@ -34933,11 +34919,11 @@
         <v>206</v>
       </c>
       <c r="F126" s="33" t="str">
-        <f>B126</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G126" s="8">
-        <f>A126</f>
+        <f t="shared" si="3"/>
         <v>42557.632326388892</v>
       </c>
     </row>
@@ -34958,11 +34944,11 @@
         <v>206</v>
       </c>
       <c r="F127" s="33" t="str">
-        <f>B127</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G127" s="8">
-        <f>A127</f>
+        <f t="shared" si="3"/>
         <v>42557.673379629632</v>
       </c>
     </row>
@@ -34983,11 +34969,11 @@
         <v>143</v>
       </c>
       <c r="F128" s="33" t="str">
-        <f>B128</f>
+        <f t="shared" si="2"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G128" s="8">
-        <f>A128</f>
+        <f t="shared" si="3"/>
         <v>42557.640659722223</v>
       </c>
     </row>
@@ -35008,11 +34994,11 @@
         <v>143</v>
       </c>
       <c r="F129" s="33" t="str">
-        <f>B129</f>
+        <f t="shared" ref="F129:F192" si="4">B129</f>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G129" s="8">
-        <f>A129</f>
+        <f t="shared" ref="G129:G192" si="5">A129</f>
         <v>42557.679976851854</v>
       </c>
     </row>
@@ -35033,11 +35019,11 @@
         <v>149</v>
       </c>
       <c r="F130" s="33" t="str">
-        <f>B130</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G130" s="8">
-        <f>A130</f>
+        <f t="shared" si="5"/>
         <v>42557.653067129628</v>
       </c>
     </row>
@@ -35058,11 +35044,11 @@
         <v>149</v>
       </c>
       <c r="F131" s="33" t="str">
-        <f>B131</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G131" s="8">
-        <f>A131</f>
+        <f t="shared" si="5"/>
         <v>42557.691238425927</v>
       </c>
     </row>
@@ -35083,11 +35069,11 @@
         <v>161</v>
       </c>
       <c r="F132" s="33" t="str">
-        <f>B132</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G132" s="8">
-        <f>A132</f>
+        <f t="shared" si="5"/>
         <v>42557.661979166667</v>
       </c>
     </row>
@@ -35108,11 +35094,11 @@
         <v>161</v>
       </c>
       <c r="F133" s="33" t="str">
-        <f>B133</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G133" s="8">
-        <f>A133</f>
+        <f t="shared" si="5"/>
         <v>42557.699513888889</v>
       </c>
     </row>
@@ -35133,11 +35119,11 @@
         <v>144</v>
       </c>
       <c r="F134" s="33" t="str">
-        <f>B134</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G134" s="8">
-        <f>A134</f>
+        <f t="shared" si="5"/>
         <v>42557.674270833333</v>
       </c>
     </row>
@@ -35158,11 +35144,11 @@
         <v>144</v>
       </c>
       <c r="F135" s="33" t="str">
-        <f>B135</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G135" s="8">
-        <f>A135</f>
+        <f t="shared" si="5"/>
         <v>42557.728831018518</v>
       </c>
     </row>
@@ -35183,11 +35169,11 @@
         <v>144</v>
       </c>
       <c r="F136" s="33" t="str">
-        <f>B136</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G136" s="8">
-        <f>A136</f>
+        <f t="shared" si="5"/>
         <v>42557.708935185183</v>
       </c>
     </row>
@@ -35208,11 +35194,11 @@
         <v>258</v>
       </c>
       <c r="F137" s="33" t="str">
-        <f>B137</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G137" s="8">
-        <f>A137</f>
+        <f t="shared" si="5"/>
         <v>42557.684062499997</v>
       </c>
     </row>
@@ -35233,11 +35219,11 @@
         <v>258</v>
       </c>
       <c r="F138" s="33" t="str">
-        <f>B138</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G138" s="8">
-        <f>A138</f>
+        <f t="shared" si="5"/>
         <v>42557.724606481483</v>
       </c>
     </row>
@@ -35258,11 +35244,11 @@
         <v>246</v>
       </c>
       <c r="F139" s="33" t="str">
-        <f>B139</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G139" s="8">
-        <f>A139</f>
+        <f t="shared" si="5"/>
         <v>42557.691863425927</v>
       </c>
     </row>
@@ -35283,11 +35269,11 @@
         <v>246</v>
       </c>
       <c r="F140" s="33" t="str">
-        <f>B140</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G140" s="8">
-        <f>A140</f>
+        <f t="shared" si="5"/>
         <v>42557.729479166665</v>
       </c>
     </row>
@@ -35308,11 +35294,11 @@
         <v>206</v>
       </c>
       <c r="F141" s="33" t="str">
-        <f>B141</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G141" s="8">
-        <f>A141</f>
+        <f t="shared" si="5"/>
         <v>42557.704988425925</v>
       </c>
     </row>
@@ -35333,11 +35319,11 @@
         <v>206</v>
       </c>
       <c r="F142" s="33" t="str">
-        <f>B142</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G142" s="8">
-        <f>A142</f>
+        <f t="shared" si="5"/>
         <v>42557.742766203701</v>
       </c>
     </row>
@@ -35358,11 +35344,11 @@
         <v>136</v>
       </c>
       <c r="F143" s="33" t="str">
-        <f>B143</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G143" s="8">
-        <f>A143</f>
+        <f t="shared" si="5"/>
         <v>42557.715011574073</v>
       </c>
     </row>
@@ -35383,11 +35369,11 @@
         <v>136</v>
       </c>
       <c r="F144" s="33" t="str">
-        <f>B144</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G144" s="8">
-        <f>A144</f>
+        <f t="shared" si="5"/>
         <v>42557.753506944442</v>
       </c>
     </row>
@@ -35408,11 +35394,11 @@
         <v>149</v>
       </c>
       <c r="F145" s="33" t="str">
-        <f>B145</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G145" s="8">
-        <f>A145</f>
+        <f t="shared" si="5"/>
         <v>42557.725706018522</v>
       </c>
     </row>
@@ -35433,11 +35419,11 @@
         <v>149</v>
       </c>
       <c r="F146" s="33" t="str">
-        <f>B146</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4043:itc</v>
       </c>
       <c r="G146" s="8">
-        <f>A146</f>
+        <f t="shared" si="5"/>
         <v>42557.764814814815</v>
       </c>
     </row>
@@ -35458,11 +35444,11 @@
         <v>442</v>
       </c>
       <c r="F147" s="33" t="str">
-        <f>B147</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G147" s="8">
-        <f>A147</f>
+        <f t="shared" si="5"/>
         <v>42557.737939814811</v>
       </c>
     </row>
@@ -35483,11 +35469,11 @@
         <v>442</v>
       </c>
       <c r="F148" s="33" t="str">
-        <f>B148</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G148" s="8">
-        <f>A148</f>
+        <f t="shared" si="5"/>
         <v>42557.777280092596</v>
       </c>
     </row>
@@ -35508,11 +35494,11 @@
         <v>442</v>
       </c>
       <c r="F149" s="33" t="str">
-        <f>B149</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G149" s="8">
-        <f>A149</f>
+        <f t="shared" si="5"/>
         <v>42557.776597222219</v>
       </c>
     </row>
@@ -35533,11 +35519,11 @@
         <v>144</v>
       </c>
       <c r="F150" s="33" t="str">
-        <f>B150</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G150" s="8">
-        <f>A150</f>
+        <f t="shared" si="5"/>
         <v>42557.749525462961</v>
       </c>
     </row>
@@ -35558,11 +35544,11 @@
         <v>144</v>
       </c>
       <c r="F151" s="33" t="str">
-        <f>B151</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G151" s="8">
-        <f>A151</f>
+        <f t="shared" si="5"/>
         <v>42557.787187499998</v>
       </c>
     </row>
@@ -35583,11 +35569,11 @@
         <v>110</v>
       </c>
       <c r="F152" s="33" t="str">
-        <f>B152</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G152" s="8">
-        <f>A152</f>
+        <f t="shared" si="5"/>
         <v>42557.757303240738</v>
       </c>
     </row>
@@ -35608,11 +35594,11 @@
         <v>110</v>
       </c>
       <c r="F153" s="33" t="str">
-        <f>B153</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G153" s="8">
-        <f>A153</f>
+        <f t="shared" si="5"/>
         <v>42557.7971875</v>
       </c>
     </row>
@@ -35633,11 +35619,11 @@
         <v>165</v>
       </c>
       <c r="F154" s="33" t="str">
-        <f>B154</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G154" s="8">
-        <f>A154</f>
+        <f t="shared" si="5"/>
         <v>42557.768252314818</v>
       </c>
     </row>
@@ -35658,11 +35644,11 @@
         <v>165</v>
       </c>
       <c r="F155" s="33" t="str">
-        <f>B155</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4019:itc</v>
       </c>
       <c r="G155" s="8">
-        <f>A155</f>
+        <f t="shared" si="5"/>
         <v>42556.808171296296</v>
       </c>
     </row>
@@ -35683,11 +35669,11 @@
         <v>165</v>
       </c>
       <c r="F156" s="33" t="str">
-        <f>B156</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G156" s="8">
-        <f>A156</f>
+        <f t="shared" si="5"/>
         <v>42557.80804398148</v>
       </c>
     </row>
@@ -35708,11 +35694,11 @@
         <v>136</v>
       </c>
       <c r="F157" s="33" t="str">
-        <f>B157</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G157" s="8">
-        <f>A157</f>
+        <f t="shared" si="5"/>
         <v>42557.790717592594</v>
       </c>
     </row>
@@ -35733,11 +35719,11 @@
         <v>136</v>
       </c>
       <c r="F158" s="33" t="str">
-        <f>B158</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G158" s="8">
-        <f>A158</f>
+        <f t="shared" si="5"/>
         <v>42557.78979166667</v>
       </c>
     </row>
@@ -35758,11 +35744,11 @@
         <v>136</v>
       </c>
       <c r="F159" s="33" t="str">
-        <f>B159</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G159" s="8">
-        <f>A159</f>
+        <f t="shared" si="5"/>
         <v>42557.795219907406</v>
       </c>
     </row>
@@ -35783,11 +35769,11 @@
         <v>110</v>
       </c>
       <c r="F160" s="33" t="str">
-        <f>B160</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G160" s="8">
-        <f>A160</f>
+        <f t="shared" si="5"/>
         <v>42556.828425925924</v>
       </c>
     </row>
@@ -35808,11 +35794,11 @@
         <v>136</v>
       </c>
       <c r="F161" s="33" t="str">
-        <f>B161</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G161" s="8">
-        <f>A161</f>
+        <f t="shared" si="5"/>
         <v>42557.822013888886</v>
       </c>
     </row>
@@ -35833,11 +35819,11 @@
         <v>247</v>
       </c>
       <c r="F162" s="33" t="str">
-        <f>B162</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G162" s="8">
-        <f>A162</f>
+        <f t="shared" si="5"/>
         <v>42556.816562499997</v>
       </c>
     </row>
@@ -35858,11 +35844,11 @@
         <v>161</v>
       </c>
       <c r="F163" s="33" t="str">
-        <f>B163</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G163" s="8">
-        <f>A163</f>
+        <f t="shared" si="5"/>
         <v>42557.806458333333</v>
       </c>
     </row>
@@ -35883,11 +35869,11 @@
         <v>247</v>
       </c>
       <c r="F164" s="33" t="str">
-        <f>B164</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G164" s="8">
-        <f>A164</f>
+        <f t="shared" si="5"/>
         <v>42556.850671296299</v>
       </c>
     </row>
@@ -35908,11 +35894,11 @@
         <v>247</v>
       </c>
       <c r="F165" s="33" t="str">
-        <f>B165</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G165" s="8">
-        <f>A165</f>
+        <f t="shared" si="5"/>
         <v>42556.851365740738</v>
       </c>
     </row>
@@ -35933,11 +35919,11 @@
         <v>161</v>
       </c>
       <c r="F166" s="33" t="str">
-        <f>B166</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G166" s="8">
-        <f>A166</f>
+        <f t="shared" si="5"/>
         <v>42557.846516203703</v>
       </c>
     </row>
@@ -35958,11 +35944,11 @@
         <v>161</v>
       </c>
       <c r="F167" s="33" t="str">
-        <f>B167</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G167" s="8">
-        <f>A167</f>
+        <f t="shared" si="5"/>
         <v>42557.847743055558</v>
       </c>
     </row>
@@ -35983,11 +35969,11 @@
         <v>110</v>
       </c>
       <c r="F168" s="33" t="str">
-        <f>B168</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G168" s="8">
-        <f>A168</f>
+        <f t="shared" si="5"/>
         <v>42556.826967592591</v>
       </c>
     </row>
@@ -36008,11 +35994,11 @@
         <v>167</v>
       </c>
       <c r="F169" s="33" t="str">
-        <f>B169</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G169" s="8">
-        <f>A169</f>
+        <f t="shared" si="5"/>
         <v>42556.832141203704</v>
       </c>
     </row>
@@ -36033,11 +36019,11 @@
         <v>110</v>
       </c>
       <c r="F170" s="33" t="str">
-        <f>B170</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G170" s="8">
-        <f>A170</f>
+        <f t="shared" si="5"/>
         <v>42557.829340277778</v>
       </c>
     </row>
@@ -36058,11 +36044,11 @@
         <v>167</v>
       </c>
       <c r="F171" s="33" t="str">
-        <f>B171</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G171" s="8">
-        <f>A171</f>
+        <f t="shared" si="5"/>
         <v>42556.87164351852</v>
       </c>
     </row>
@@ -36083,11 +36069,11 @@
         <v>167</v>
       </c>
       <c r="F172" s="33" t="str">
-        <f>B172</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G172" s="8">
-        <f>A172</f>
+        <f t="shared" si="5"/>
         <v>42556.86923611111</v>
       </c>
     </row>
@@ -36108,11 +36094,11 @@
         <v>167</v>
       </c>
       <c r="F173" s="33" t="str">
-        <f>B173</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G173" s="8">
-        <f>A173</f>
+        <f t="shared" si="5"/>
         <v>42556.870462962965</v>
       </c>
     </row>
@@ -36133,11 +36119,11 @@
         <v>110</v>
       </c>
       <c r="F174" s="33" t="str">
-        <f>B174</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G174" s="8">
-        <f>A174</f>
+        <f t="shared" si="5"/>
         <v>42557.867766203701</v>
       </c>
     </row>
@@ -36158,11 +36144,11 @@
         <v>165</v>
       </c>
       <c r="F175" s="33" t="str">
-        <f>B175</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4020:itc</v>
       </c>
       <c r="G175" s="8">
-        <f>A175</f>
+        <f t="shared" si="5"/>
         <v>42556.854849537034</v>
       </c>
     </row>
@@ -36183,11 +36169,11 @@
         <v>165</v>
       </c>
       <c r="F176" s="33" t="str">
-        <f>B176</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G176" s="8">
-        <f>A176</f>
+        <f t="shared" si="5"/>
         <v>42557.849606481483</v>
       </c>
     </row>
@@ -36208,11 +36194,11 @@
         <v>165</v>
       </c>
       <c r="F177" s="33" t="str">
-        <f>B177</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4019:itc</v>
       </c>
       <c r="G177" s="8">
-        <f>A177</f>
+        <f t="shared" si="5"/>
         <v>42556.891076388885</v>
       </c>
     </row>
@@ -36233,11 +36219,11 @@
         <v>165</v>
       </c>
       <c r="F178" s="33" t="str">
-        <f>B178</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G178" s="8">
-        <f>A178</f>
+        <f t="shared" si="5"/>
         <v>42557.889421296299</v>
       </c>
     </row>
@@ -36258,11 +36244,11 @@
         <v>110</v>
       </c>
       <c r="F179" s="33" t="str">
-        <f>B179</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G179" s="8">
-        <f>A179</f>
+        <f t="shared" si="5"/>
         <v>42556.87127314815</v>
       </c>
     </row>
@@ -36283,11 +36269,11 @@
         <v>136</v>
       </c>
       <c r="F180" s="33" t="str">
-        <f>B180</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G180" s="8">
-        <f>A180</f>
+        <f t="shared" si="5"/>
         <v>42557.864768518521</v>
       </c>
     </row>
@@ -36308,11 +36294,11 @@
         <v>110</v>
       </c>
       <c r="F181" s="33" t="str">
-        <f>B181</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G181" s="8">
-        <f>A181</f>
+        <f t="shared" si="5"/>
         <v>42556.91065972222</v>
       </c>
     </row>
@@ -36333,11 +36319,11 @@
         <v>136</v>
       </c>
       <c r="F182" s="33" t="str">
-        <f>B182</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G182" s="8">
-        <f>A182</f>
+        <f t="shared" si="5"/>
         <v>42557.910034722219</v>
       </c>
     </row>
@@ -36358,11 +36344,11 @@
         <v>136</v>
       </c>
       <c r="F183" s="33" t="str">
-        <f>B183</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G183" s="8">
-        <f>A183</f>
+        <f t="shared" si="5"/>
         <v>42556.877118055556</v>
       </c>
     </row>
@@ -36383,11 +36369,11 @@
         <v>442</v>
       </c>
       <c r="F184" s="33" t="str">
-        <f>B184</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G184" s="8">
-        <f>A184</f>
+        <f t="shared" si="5"/>
         <v>42557.887187499997</v>
       </c>
     </row>
@@ -36408,11 +36394,11 @@
         <v>136</v>
       </c>
       <c r="F185" s="33" t="str">
-        <f>B185</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G185" s="8">
-        <f>A185</f>
+        <f t="shared" si="5"/>
         <v>42556.931331018517</v>
       </c>
     </row>
@@ -36433,11 +36419,11 @@
         <v>136</v>
       </c>
       <c r="F186" s="33" t="str">
-        <f>B186</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G186" s="8">
-        <f>A186</f>
+        <f t="shared" si="5"/>
         <v>42556.930219907408</v>
       </c>
     </row>
@@ -36458,11 +36444,11 @@
         <v>442</v>
       </c>
       <c r="F187" s="33" t="str">
-        <f>B187</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G187" s="8">
-        <f>A187</f>
+        <f t="shared" si="5"/>
         <v>42557.930243055554</v>
       </c>
     </row>
@@ -36483,11 +36469,11 @@
         <v>247</v>
       </c>
       <c r="F188" s="33" t="str">
-        <f>B188</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G188" s="8">
-        <f>A188</f>
+        <f t="shared" si="5"/>
         <v>42556.910810185182</v>
       </c>
     </row>
@@ -36508,11 +36494,11 @@
         <v>110</v>
       </c>
       <c r="F189" s="33" t="str">
-        <f>B189</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G189" s="8">
-        <f>A189</f>
+        <f t="shared" si="5"/>
         <v>42557.913078703707</v>
       </c>
     </row>
@@ -36533,11 +36519,11 @@
         <v>247</v>
       </c>
       <c r="F190" s="33" t="str">
-        <f>B190</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G190" s="8">
-        <f>A190</f>
+        <f t="shared" si="5"/>
         <v>42556.953020833331</v>
       </c>
     </row>
@@ -36558,11 +36544,11 @@
         <v>110</v>
       </c>
       <c r="F191" s="33" t="str">
-        <f>B191</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G191" s="8">
-        <f>A191</f>
+        <f t="shared" si="5"/>
         <v>42557.952534722222</v>
       </c>
     </row>
@@ -36583,11 +36569,11 @@
         <v>165</v>
       </c>
       <c r="F192" s="33" t="str">
-        <f>B192</f>
+        <f t="shared" si="4"/>
         <v>rtdc.l.rtdc.4020:itc</v>
       </c>
       <c r="G192" s="8">
-        <f>A192</f>
+        <f t="shared" si="5"/>
         <v>42556.933391203704</v>
       </c>
     </row>
@@ -36608,11 +36594,11 @@
         <v>165</v>
       </c>
       <c r="F193" s="33" t="str">
-        <f>B193</f>
+        <f t="shared" ref="F193:F256" si="6">B193</f>
         <v>rtdc.l.rtdc.4020:itc</v>
       </c>
       <c r="G193" s="8">
-        <f>A193</f>
+        <f t="shared" ref="G193:G256" si="7">A193</f>
         <v>42556.93240740741</v>
       </c>
     </row>
@@ -36633,11 +36619,11 @@
         <v>165</v>
       </c>
       <c r="F194" s="33" t="str">
-        <f>B194</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4020:itc</v>
       </c>
       <c r="G194" s="8">
-        <f>A194</f>
+        <f t="shared" si="7"/>
         <v>42556.949918981481</v>
       </c>
     </row>
@@ -36658,11 +36644,11 @@
         <v>165</v>
       </c>
       <c r="F195" s="33" t="str">
-        <f>B195</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G195" s="8">
-        <f>A195</f>
+        <f t="shared" si="7"/>
         <v>42557.930949074071</v>
       </c>
     </row>
@@ -36683,11 +36669,11 @@
         <v>165</v>
       </c>
       <c r="F196" s="33" t="str">
-        <f>B196</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4019:itc</v>
       </c>
       <c r="G196" s="8">
-        <f>A196</f>
+        <f t="shared" si="7"/>
         <v>42556.974618055552</v>
       </c>
     </row>
@@ -36708,11 +36694,11 @@
         <v>165</v>
       </c>
       <c r="F197" s="33" t="str">
-        <f>B197</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G197" s="8">
-        <f>A197</f>
+        <f t="shared" si="7"/>
         <v>42557.97415509259</v>
       </c>
     </row>
@@ -36733,11 +36719,11 @@
         <v>110</v>
       </c>
       <c r="F198" s="33" t="str">
-        <f>B198</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4031:itc</v>
       </c>
       <c r="G198" s="8">
-        <f>A198</f>
+        <f t="shared" si="7"/>
         <v>42556.953750000001</v>
       </c>
     </row>
@@ -36758,11 +36744,11 @@
         <v>136</v>
       </c>
       <c r="F199" s="33" t="str">
-        <f>B199</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G199" s="8">
-        <f>A199</f>
+        <f t="shared" si="7"/>
         <v>42557.95349537037</v>
       </c>
     </row>
@@ -36783,11 +36769,11 @@
         <v>110</v>
       </c>
       <c r="F200" s="33" t="str">
-        <f>B200</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G200" s="8">
-        <f>A200</f>
+        <f t="shared" si="7"/>
         <v>42556.993020833332</v>
       </c>
     </row>
@@ -36808,11 +36794,11 @@
         <v>110</v>
       </c>
       <c r="F201" s="33" t="str">
-        <f>B201</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G201" s="8">
-        <f>A201</f>
+        <f t="shared" si="7"/>
         <v>42556.993761574071</v>
       </c>
     </row>
@@ -36833,11 +36819,11 @@
         <v>110</v>
       </c>
       <c r="F202" s="33" t="str">
-        <f>B202</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G202" s="8">
-        <f>A202</f>
+        <f t="shared" si="7"/>
         <v>42556.995486111111</v>
       </c>
     </row>
@@ -36858,11 +36844,11 @@
         <v>136</v>
       </c>
       <c r="F203" s="33" t="str">
-        <f>B203</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G203" s="8">
-        <f>A203</f>
+        <f t="shared" si="7"/>
         <v>42557.994884259257</v>
       </c>
     </row>
@@ -36883,11 +36869,11 @@
         <v>136</v>
       </c>
       <c r="F204" s="33" t="str">
-        <f>B204</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G204" s="8">
-        <f>A204</f>
+        <f t="shared" si="7"/>
         <v>42556.976423611108</v>
       </c>
     </row>
@@ -36908,11 +36894,11 @@
         <v>442</v>
       </c>
       <c r="F205" s="33" t="str">
-        <f>B205</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G205" s="8">
-        <f>A205</f>
+        <f t="shared" si="7"/>
         <v>42557.970821759256</v>
       </c>
     </row>
@@ -36933,11 +36919,11 @@
         <v>136</v>
       </c>
       <c r="F206" s="33" t="str">
-        <f>B206</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G206" s="8">
-        <f>A206</f>
+        <f t="shared" si="7"/>
         <v>42557.013368055559</v>
       </c>
     </row>
@@ -36958,11 +36944,11 @@
         <v>442</v>
       </c>
       <c r="F207" s="33" t="str">
-        <f>B207</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G207" s="8">
-        <f>A207</f>
+        <f t="shared" si="7"/>
         <v>42558.013171296298</v>
       </c>
     </row>
@@ -36983,11 +36969,11 @@
         <v>247</v>
       </c>
       <c r="F208" s="33" t="str">
-        <f>B208</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G208" s="8">
-        <f>A208</f>
+        <f t="shared" si="7"/>
         <v>42556.997407407405</v>
       </c>
     </row>
@@ -37008,11 +36994,11 @@
         <v>110</v>
       </c>
       <c r="F209" s="33" t="str">
-        <f>B209</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G209" s="8">
-        <f>A209</f>
+        <f t="shared" si="7"/>
         <v>42557.997303240743</v>
       </c>
     </row>
@@ -37033,11 +37019,11 @@
         <v>247</v>
       </c>
       <c r="F210" s="33" t="str">
-        <f>B210</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G210" s="8">
-        <f>A210</f>
+        <f t="shared" si="7"/>
         <v>42557.032719907409</v>
       </c>
     </row>
@@ -37058,11 +37044,11 @@
         <v>110</v>
       </c>
       <c r="F211" s="33" t="str">
-        <f>B211</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G211" s="8">
-        <f>A211</f>
+        <f t="shared" si="7"/>
         <v>42558.03701388889</v>
       </c>
     </row>
@@ -37083,11 +37069,11 @@
         <v>165</v>
       </c>
       <c r="F212" s="33" t="str">
-        <f>B212</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4020:itc</v>
       </c>
       <c r="G212" s="8">
-        <f>A212</f>
+        <f t="shared" si="7"/>
         <v>42557.017326388886</v>
       </c>
     </row>
@@ -37108,11 +37094,11 @@
         <v>165</v>
       </c>
       <c r="F213" s="33" t="str">
-        <f>B213</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G213" s="8">
-        <f>A213</f>
+        <f t="shared" si="7"/>
         <v>42558.015844907408</v>
       </c>
     </row>
@@ -37133,11 +37119,11 @@
         <v>165</v>
       </c>
       <c r="F214" s="33" t="str">
-        <f>B214</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4019:itc</v>
       </c>
       <c r="G214" s="8">
-        <f>A214</f>
+        <f t="shared" si="7"/>
         <v>42557.05673611111</v>
       </c>
     </row>
@@ -37158,11 +37144,11 @@
         <v>165</v>
       </c>
       <c r="F215" s="33" t="str">
-        <f>B215</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G215" s="8">
-        <f>A215</f>
+        <f t="shared" si="7"/>
         <v>42558.058113425926</v>
       </c>
     </row>
@@ -37183,11 +37169,11 @@
         <v>126</v>
       </c>
       <c r="F216" s="33" t="str">
-        <f>B216</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G216" s="8">
-        <f>A216</f>
+        <f t="shared" si="7"/>
         <v>42557.22</v>
       </c>
     </row>
@@ -37208,11 +37194,11 @@
         <v>151</v>
       </c>
       <c r="F217" s="33" t="str">
-        <f>B217</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G217" s="8">
-        <f>A217</f>
+        <f t="shared" si="7"/>
         <v>42558.21665509259</v>
       </c>
     </row>
@@ -37233,11 +37219,11 @@
         <v>126</v>
       </c>
       <c r="F218" s="33" t="str">
-        <f>B218</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G218" s="8">
-        <f>A218</f>
+        <f t="shared" si="7"/>
         <v>42557.235868055555</v>
       </c>
     </row>
@@ -37258,11 +37244,11 @@
         <v>151</v>
       </c>
       <c r="F219" s="33" t="str">
-        <f>B219</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G219" s="8">
-        <f>A219</f>
+        <f t="shared" si="7"/>
         <v>42558.240636574075</v>
       </c>
     </row>
@@ -37283,11 +37269,11 @@
         <v>126</v>
       </c>
       <c r="F220" s="33" t="str">
-        <f>B220</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G220" s="8">
-        <f>A220</f>
+        <f t="shared" si="7"/>
         <v>42557.255555555559</v>
       </c>
     </row>
@@ -37308,11 +37294,11 @@
         <v>151</v>
       </c>
       <c r="F221" s="33" t="str">
-        <f>B221</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G221" s="8">
-        <f>A221</f>
+        <f t="shared" si="7"/>
         <v>42558.257106481484</v>
       </c>
     </row>
@@ -37333,11 +37319,11 @@
         <v>150</v>
       </c>
       <c r="F222" s="33" t="str">
-        <f>B222</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G222" s="8">
-        <f>A222</f>
+        <f t="shared" si="7"/>
         <v>42557.25675925926</v>
       </c>
     </row>
@@ -37358,11 +37344,11 @@
         <v>120</v>
       </c>
       <c r="F223" s="33" t="str">
-        <f>B223</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G223" s="8">
-        <f>A223</f>
+        <f t="shared" si="7"/>
         <v>42558.256608796299</v>
       </c>
     </row>
@@ -37383,11 +37369,11 @@
         <v>150</v>
       </c>
       <c r="F224" s="33" t="str">
-        <f>B224</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G224" s="8">
-        <f>A224</f>
+        <f t="shared" si="7"/>
         <v>42557.276886574073</v>
       </c>
     </row>
@@ -37408,11 +37394,11 @@
         <v>120</v>
       </c>
       <c r="F225" s="33" t="str">
-        <f>B225</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G225" s="8">
-        <f>A225</f>
+        <f t="shared" si="7"/>
         <v>42558.277928240743</v>
       </c>
     </row>
@@ -37433,11 +37419,11 @@
         <v>126</v>
       </c>
       <c r="F226" s="33" t="str">
-        <f>B226</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G226" s="8">
-        <f>A226</f>
+        <f t="shared" si="7"/>
         <v>42557.279340277775</v>
       </c>
     </row>
@@ -37458,11 +37444,11 @@
         <v>151</v>
       </c>
       <c r="F227" s="33" t="str">
-        <f>B227</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G227" s="8">
-        <f>A227</f>
+        <f t="shared" si="7"/>
         <v>42558.27888888889</v>
       </c>
     </row>
@@ -37483,11 +37469,11 @@
         <v>126</v>
       </c>
       <c r="F228" s="33" t="str">
-        <f>B228</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G228" s="8">
-        <f>A228</f>
+        <f t="shared" si="7"/>
         <v>42557.296493055554</v>
       </c>
     </row>
@@ -37508,11 +37494,11 @@
         <v>151</v>
       </c>
       <c r="F229" s="33" t="str">
-        <f>B229</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4026:itc</v>
       </c>
       <c r="G229" s="8">
-        <f>A229</f>
+        <f t="shared" si="7"/>
         <v>42558.296736111108</v>
       </c>
     </row>
@@ -37533,11 +37519,11 @@
         <v>150</v>
       </c>
       <c r="F230" s="33" t="str">
-        <f>B230</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G230" s="8">
-        <f>A230</f>
+        <f t="shared" si="7"/>
         <v>42557.291238425925</v>
       </c>
     </row>
@@ -37558,11 +37544,11 @@
         <v>150</v>
       </c>
       <c r="F231" s="33" t="str">
-        <f>B231</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G231" s="8">
-        <f>A231</f>
+        <f t="shared" si="7"/>
         <v>42557.317199074074</v>
       </c>
     </row>
@@ -37583,11 +37569,11 @@
         <v>126</v>
       </c>
       <c r="F232" s="33" t="str">
-        <f>B232</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G232" s="8">
-        <f>A232</f>
+        <f t="shared" si="7"/>
         <v>42557.321620370371</v>
       </c>
     </row>
@@ -37608,11 +37594,11 @@
         <v>126</v>
       </c>
       <c r="F233" s="33" t="str">
-        <f>B233</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G233" s="8">
-        <f>A233</f>
+        <f t="shared" si="7"/>
         <v>42557.338425925926</v>
       </c>
     </row>
@@ -37633,11 +37619,11 @@
         <v>150</v>
       </c>
       <c r="F234" s="33" t="str">
-        <f>B234</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G234" s="8">
-        <f>A234</f>
+        <f t="shared" si="7"/>
         <v>42557.331631944442</v>
       </c>
     </row>
@@ -37658,11 +37644,11 @@
         <v>150</v>
       </c>
       <c r="F235" s="33" t="str">
-        <f>B235</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G235" s="8">
-        <f>A235</f>
+        <f t="shared" si="7"/>
         <v>42557.359560185185</v>
       </c>
     </row>
@@ -37683,11 +37669,11 @@
         <v>150</v>
       </c>
       <c r="F236" s="33" t="str">
-        <f>B236</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G236" s="8">
-        <f>A236</f>
+        <f t="shared" si="7"/>
         <v>42557.373310185183</v>
       </c>
     </row>
@@ -37708,11 +37694,11 @@
         <v>150</v>
       </c>
       <c r="F237" s="33" t="str">
-        <f>B237</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G237" s="8">
-        <f>A237</f>
+        <f t="shared" si="7"/>
         <v>42557.40048611111</v>
       </c>
     </row>
@@ -37733,11 +37719,11 @@
         <v>150</v>
       </c>
       <c r="F238" s="33" t="str">
-        <f>B238</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G238" s="8">
-        <f>A238</f>
+        <f t="shared" si="7"/>
         <v>42557.41333333333</v>
       </c>
     </row>
@@ -37758,11 +37744,11 @@
         <v>150</v>
       </c>
       <c r="F239" s="33" t="str">
-        <f>B239</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G239" s="8">
-        <f>A239</f>
+        <f t="shared" si="7"/>
         <v>42557.442280092589</v>
       </c>
     </row>
@@ -37783,11 +37769,11 @@
         <v>150</v>
       </c>
       <c r="F240" s="33" t="str">
-        <f>B240</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G240" s="8">
-        <f>A240</f>
+        <f t="shared" si="7"/>
         <v>42557.454930555556</v>
       </c>
     </row>
@@ -37808,11 +37794,11 @@
         <v>150</v>
       </c>
       <c r="F241" s="33" t="str">
-        <f>B241</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G241" s="8">
-        <f>A241</f>
+        <f t="shared" si="7"/>
         <v>42557.483773148146</v>
       </c>
     </row>
@@ -37833,11 +37819,11 @@
         <v>150</v>
       </c>
       <c r="F242" s="33" t="str">
-        <f>B242</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G242" s="8">
-        <f>A242</f>
+        <f t="shared" si="7"/>
         <v>42557.484351851854</v>
       </c>
     </row>
@@ -37858,11 +37844,11 @@
         <v>150</v>
       </c>
       <c r="F243" s="33" t="str">
-        <f>B243</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G243" s="8">
-        <f>A243</f>
+        <f t="shared" si="7"/>
         <v>42557.484907407408</v>
       </c>
     </row>
@@ -37883,11 +37869,11 @@
         <v>150</v>
       </c>
       <c r="F244" s="33" t="str">
-        <f>B244</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G244" s="8">
-        <f>A244</f>
+        <f t="shared" si="7"/>
         <v>42557.500925925924</v>
       </c>
     </row>
@@ -37908,11 +37894,11 @@
         <v>150</v>
       </c>
       <c r="F245" s="33" t="str">
-        <f>B245</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G245" s="8">
-        <f>A245</f>
+        <f t="shared" si="7"/>
         <v>42557.525393518517</v>
       </c>
     </row>
@@ -37933,11 +37919,11 @@
         <v>150</v>
       </c>
       <c r="F246" s="33" t="str">
-        <f>B246</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G246" s="8">
-        <f>A246</f>
+        <f t="shared" si="7"/>
         <v>42557.552766203706</v>
       </c>
     </row>
@@ -37958,11 +37944,11 @@
         <v>150</v>
       </c>
       <c r="F247" s="33" t="str">
-        <f>B247</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G247" s="8">
-        <f>A247</f>
+        <f t="shared" si="7"/>
         <v>42557.568032407406</v>
       </c>
     </row>
@@ -37983,11 +37969,11 @@
         <v>254</v>
       </c>
       <c r="F248" s="33" t="str">
-        <f>B248</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G248" s="8">
-        <f>A248</f>
+        <f t="shared" si="7"/>
         <v>42557.593043981484</v>
       </c>
     </row>
@@ -38008,11 +37994,11 @@
         <v>254</v>
       </c>
       <c r="F249" s="33" t="str">
-        <f>B249</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G249" s="8">
-        <f>A249</f>
+        <f t="shared" si="7"/>
         <v>42557.609861111108</v>
       </c>
     </row>
@@ -38033,11 +38019,11 @@
         <v>254</v>
       </c>
       <c r="F250" s="33" t="str">
-        <f>B250</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G250" s="8">
-        <f>A250</f>
+        <f t="shared" si="7"/>
         <v>42557.63690972222</v>
       </c>
     </row>
@@ -38058,11 +38044,11 @@
         <v>254</v>
       </c>
       <c r="F251" s="33" t="str">
-        <f>B251</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G251" s="8">
-        <f>A251</f>
+        <f t="shared" si="7"/>
         <v>42557.650671296295</v>
       </c>
     </row>
@@ -38083,11 +38069,11 @@
         <v>167</v>
       </c>
       <c r="F252" s="33" t="str">
-        <f>B252</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G252" s="8">
-        <f>A252</f>
+        <f t="shared" si="7"/>
         <v>42557.651724537034</v>
       </c>
     </row>
@@ -38108,11 +38094,11 @@
         <v>167</v>
       </c>
       <c r="F253" s="33" t="str">
-        <f>B253</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G253" s="8">
-        <f>A253</f>
+        <f t="shared" si="7"/>
         <v>42557.674247685187</v>
       </c>
     </row>
@@ -38133,11 +38119,11 @@
         <v>254</v>
       </c>
       <c r="F254" s="33" t="str">
-        <f>B254</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G254" s="8">
-        <f>A254</f>
+        <f t="shared" si="7"/>
         <v>42557.67769675926</v>
       </c>
     </row>
@@ -38158,11 +38144,11 @@
         <v>254</v>
       </c>
       <c r="F255" s="33" t="str">
-        <f>B255</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G255" s="8">
-        <f>A255</f>
+        <f t="shared" si="7"/>
         <v>42557.692465277774</v>
       </c>
     </row>
@@ -38183,11 +38169,11 @@
         <v>167</v>
       </c>
       <c r="F256" s="33" t="str">
-        <f>B256</f>
+        <f t="shared" si="6"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G256" s="8">
-        <f>A256</f>
+        <f t="shared" si="7"/>
         <v>42557.699548611112</v>
       </c>
     </row>
@@ -38208,11 +38194,11 @@
         <v>167</v>
       </c>
       <c r="F257" s="33" t="str">
-        <f>B257</f>
+        <f t="shared" ref="F257:F295" si="8">B257</f>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G257" s="8">
-        <f>A257</f>
+        <f t="shared" ref="G257:G295" si="9">A257</f>
         <v>42557.701064814813</v>
       </c>
     </row>
@@ -38233,11 +38219,11 @@
         <v>167</v>
       </c>
       <c r="F258" s="33" t="str">
-        <f>B258</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G258" s="8">
-        <f>A258</f>
+        <f t="shared" si="9"/>
         <v>42557.712523148148</v>
       </c>
     </row>
@@ -38258,11 +38244,11 @@
         <v>254</v>
       </c>
       <c r="F259" s="33" t="str">
-        <f>B259</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G259" s="8">
-        <f>A259</f>
+        <f t="shared" si="9"/>
         <v>42557.720416666663</v>
       </c>
     </row>
@@ -38283,11 +38269,11 @@
         <v>254</v>
       </c>
       <c r="F260" s="33" t="str">
-        <f>B260</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G260" s="8">
-        <f>A260</f>
+        <f t="shared" si="9"/>
         <v>42557.733541666668</v>
       </c>
     </row>
@@ -38308,11 +38294,11 @@
         <v>167</v>
       </c>
       <c r="F261" s="33" t="str">
-        <f>B261</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G261" s="8">
-        <f>A261</f>
+        <f t="shared" si="9"/>
         <v>42557.740532407406</v>
       </c>
     </row>
@@ -38333,11 +38319,11 @@
         <v>167</v>
       </c>
       <c r="F262" s="33" t="str">
-        <f>B262</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G262" s="8">
-        <f>A262</f>
+        <f t="shared" si="9"/>
         <v>42557.757060185184</v>
       </c>
     </row>
@@ -38358,11 +38344,11 @@
         <v>254</v>
       </c>
       <c r="F263" s="33" t="str">
-        <f>B263</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G263" s="8">
-        <f>A263</f>
+        <f t="shared" si="9"/>
         <v>42557.762650462966</v>
       </c>
     </row>
@@ -38383,11 +38369,11 @@
         <v>254</v>
       </c>
       <c r="F264" s="33" t="str">
-        <f>B264</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G264" s="8">
-        <f>A264</f>
+        <f t="shared" si="9"/>
         <v>42557.774756944447</v>
       </c>
     </row>
@@ -38408,11 +38394,11 @@
         <v>167</v>
       </c>
       <c r="F265" s="33" t="str">
-        <f>B265</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G265" s="8">
-        <f>A265</f>
+        <f t="shared" si="9"/>
         <v>42557.781759259262</v>
       </c>
     </row>
@@ -38433,11 +38419,11 @@
         <v>250</v>
       </c>
       <c r="F266" s="33" t="str">
-        <f>B266</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G266" s="8">
-        <f>A266</f>
+        <f t="shared" si="9"/>
         <v>42556.816944444443</v>
       </c>
     </row>
@@ -38458,11 +38444,11 @@
         <v>254</v>
       </c>
       <c r="F267" s="33" t="str">
-        <f>B267</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G267" s="8">
-        <f>A267</f>
+        <f t="shared" si="9"/>
         <v>42557.817488425928</v>
       </c>
     </row>
@@ -38483,11 +38469,11 @@
         <v>250</v>
       </c>
       <c r="F268" s="33" t="str">
-        <f>B268</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G268" s="8">
-        <f>A268</f>
+        <f t="shared" si="9"/>
         <v>42556.802569444444</v>
       </c>
     </row>
@@ -38508,11 +38494,11 @@
         <v>254</v>
       </c>
       <c r="F269" s="33" t="str">
-        <f>B269</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G269" s="8">
-        <f>A269</f>
+        <f t="shared" si="9"/>
         <v>42557.804155092592</v>
       </c>
     </row>
@@ -38533,11 +38519,11 @@
         <v>250</v>
       </c>
       <c r="F270" s="33" t="str">
-        <f>B270</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G270" s="8">
-        <f>A270</f>
+        <f t="shared" si="9"/>
         <v>42556.858900462961</v>
       </c>
     </row>
@@ -38558,11 +38544,11 @@
         <v>254</v>
       </c>
       <c r="F271" s="33" t="str">
-        <f>B271</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G271" s="8">
-        <f>A271</f>
+        <f t="shared" si="9"/>
         <v>42557.860219907408</v>
       </c>
     </row>
@@ -38583,11 +38569,11 @@
         <v>250</v>
       </c>
       <c r="F272" s="33" t="str">
-        <f>B272</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G272" s="8">
-        <f>A272</f>
+        <f t="shared" si="9"/>
         <v>42556.832569444443</v>
       </c>
     </row>
@@ -38608,11 +38594,11 @@
         <v>254</v>
       </c>
       <c r="F273" s="33" t="str">
-        <f>B273</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G273" s="8">
-        <f>A273</f>
+        <f t="shared" si="9"/>
         <v>42557.848969907405</v>
       </c>
     </row>
@@ -38633,11 +38619,11 @@
         <v>250</v>
       </c>
       <c r="F274" s="33" t="str">
-        <f>B274</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G274" s="8">
-        <f>A274</f>
+        <f t="shared" si="9"/>
         <v>42556.900451388887</v>
       </c>
     </row>
@@ -38658,11 +38644,11 @@
         <v>254</v>
       </c>
       <c r="F275" s="33" t="str">
-        <f>B275</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G275" s="8">
-        <f>A275</f>
+        <f t="shared" si="9"/>
         <v>42557.900439814817</v>
       </c>
     </row>
@@ -38683,11 +38669,11 @@
         <v>250</v>
       </c>
       <c r="F276" s="33" t="str">
-        <f>B276</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G276" s="8">
-        <f>A276</f>
+        <f t="shared" si="9"/>
         <v>42556.885613425926</v>
       </c>
     </row>
@@ -38708,11 +38694,11 @@
         <v>254</v>
       </c>
       <c r="F277" s="33" t="str">
-        <f>B277</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G277" s="8">
-        <f>A277</f>
+        <f t="shared" si="9"/>
         <v>42557.888043981482</v>
       </c>
     </row>
@@ -38733,11 +38719,11 @@
         <v>250</v>
       </c>
       <c r="F278" s="33" t="str">
-        <f>B278</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G278" s="8">
-        <f>A278</f>
+        <f t="shared" si="9"/>
         <v>42556.920162037037</v>
       </c>
     </row>
@@ -38758,11 +38744,11 @@
         <v>254</v>
       </c>
       <c r="F279" s="33" t="str">
-        <f>B279</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4038:itc</v>
       </c>
       <c r="G279" s="8">
-        <f>A279</f>
+        <f t="shared" si="9"/>
         <v>42557.927071759259</v>
       </c>
     </row>
@@ -38783,11 +38769,11 @@
         <v>126</v>
       </c>
       <c r="F280" s="33" t="str">
-        <f>B280</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G280" s="8">
-        <f>A280</f>
+        <f t="shared" si="9"/>
         <v>42557.207372685189</v>
       </c>
     </row>
@@ -38808,11 +38794,11 @@
         <v>151</v>
       </c>
       <c r="F281" s="33" t="str">
-        <f>B281</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4025:itc</v>
       </c>
       <c r="G281" s="8">
-        <f>A281</f>
+        <f t="shared" si="9"/>
         <v>42558.200300925928</v>
       </c>
     </row>
@@ -38833,11 +38819,11 @@
         <v>126</v>
       </c>
       <c r="F282" s="33" t="str">
-        <f>B282</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G282" s="8">
-        <f>A282</f>
+        <f t="shared" si="9"/>
         <v>42557.352662037039</v>
       </c>
     </row>
@@ -38858,11 +38844,11 @@
         <v>253</v>
       </c>
       <c r="F283" s="33" t="str">
-        <f>B283</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4041:itc</v>
       </c>
       <c r="G283" s="8">
-        <f>A283</f>
+        <f t="shared" si="9"/>
         <v>42556.799641203703</v>
       </c>
     </row>
@@ -38883,11 +38869,11 @@
         <v>167</v>
       </c>
       <c r="F284" s="33" t="str">
-        <f>B284</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G284" s="8">
-        <f>A284</f>
+        <f t="shared" si="9"/>
         <v>42557.796967592592</v>
       </c>
     </row>
@@ -38908,11 +38894,11 @@
         <v>250</v>
       </c>
       <c r="F285" s="33" t="str">
-        <f>B285</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G285" s="8">
-        <f>A285</f>
+        <f t="shared" si="9"/>
         <v>42556.942164351851</v>
       </c>
     </row>
@@ -38933,11 +38919,11 @@
         <v>254</v>
       </c>
       <c r="F286" s="33" t="str">
-        <f>B286</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4037:itc</v>
       </c>
       <c r="G286" s="8">
-        <f>A286</f>
+        <f t="shared" si="9"/>
         <v>42557.942407407405</v>
       </c>
     </row>
@@ -38958,11 +38944,11 @@
         <v>168</v>
       </c>
       <c r="F287" s="33" t="str">
-        <f>B287</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4040:itc</v>
       </c>
       <c r="G287" s="8">
-        <f>A287</f>
+        <f t="shared" si="9"/>
         <v>42557.474699074075</v>
       </c>
     </row>
@@ -38983,11 +38969,11 @@
         <v>262</v>
       </c>
       <c r="F288" s="33" t="str">
-        <f>B288</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4005:itc</v>
       </c>
       <c r="G288" s="8">
-        <f>A288</f>
+        <f t="shared" si="9"/>
         <v>42557.049814814818</v>
       </c>
     </row>
@@ -39008,11 +38994,11 @@
         <v>262</v>
       </c>
       <c r="F289" s="33" t="str">
-        <f>B289</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4005:itc</v>
       </c>
       <c r="G289" s="8">
-        <f>A289</f>
+        <f t="shared" si="9"/>
         <v>42557.056064814817</v>
       </c>
     </row>
@@ -39033,11 +39019,11 @@
         <v>262</v>
       </c>
       <c r="F290" s="33" t="str">
-        <f>B290</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4005:itc</v>
       </c>
       <c r="G290" s="8">
-        <f>A290</f>
+        <f t="shared" si="9"/>
         <v>42558.106504629628</v>
       </c>
     </row>
@@ -39058,11 +39044,11 @@
         <v>262</v>
       </c>
       <c r="F291" s="33" t="str">
-        <f>B291</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4005:itc</v>
       </c>
       <c r="G291" s="8">
-        <f>A291</f>
+        <f t="shared" si="9"/>
         <v>42557.050798611112</v>
       </c>
     </row>
@@ -39083,11 +39069,11 @@
         <v>262</v>
       </c>
       <c r="F292" s="33" t="str">
-        <f>B292</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4006:itc</v>
       </c>
       <c r="G292" s="8">
-        <f>A292</f>
+        <f t="shared" si="9"/>
         <v>42557.224004629628</v>
       </c>
     </row>
@@ -39108,11 +39094,11 @@
         <v>262</v>
       </c>
       <c r="F293" s="33" t="str">
-        <f>B293</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4006:itc</v>
       </c>
       <c r="G293" s="8">
-        <f>A293</f>
+        <f t="shared" si="9"/>
         <v>42557.224594907406</v>
       </c>
     </row>
@@ -39133,11 +39119,11 @@
         <v>262</v>
       </c>
       <c r="F294" s="33" t="str">
-        <f>B294</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4005:itc</v>
       </c>
       <c r="G294" s="8">
-        <f>A294</f>
+        <f t="shared" si="9"/>
         <v>42557.131851851853</v>
       </c>
     </row>
@@ -39158,21 +39144,21 @@
         <v>262</v>
       </c>
       <c r="F295" s="33" t="str">
-        <f>B295</f>
+        <f t="shared" si="8"/>
         <v>rtdc.l.rtdc.4006:itc</v>
       </c>
       <c r="G295" s="8">
-        <f>A295</f>
+        <f t="shared" si="9"/>
         <v>42557.165821759256</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F296" s="33">
-        <f t="shared" ref="F282:F345" si="0">B296</f>
+        <f t="shared" ref="F296:F345" si="10">B296</f>
         <v>0</v>
       </c>
       <c r="G296" s="8">
-        <f t="shared" ref="G282:G345" si="1">A296</f>
+        <f t="shared" ref="G296:G345" si="11">A296</f>
         <v>0</v>
       </c>
     </row>
@@ -39193,11 +39179,11 @@
         <v>143</v>
       </c>
       <c r="F297" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4030:itc</v>
       </c>
       <c r="G297" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.231111111112</v>
       </c>
     </row>
@@ -39218,11 +39204,11 @@
         <v>153</v>
       </c>
       <c r="F298" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G298" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.830127314817</v>
       </c>
     </row>
@@ -39243,11 +39229,11 @@
         <v>142</v>
       </c>
       <c r="F299" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4042:itc</v>
       </c>
       <c r="G299" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.176527777781</v>
       </c>
     </row>
@@ -39268,11 +39254,11 @@
         <v>169</v>
       </c>
       <c r="F300" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G300" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.858414351853</v>
       </c>
     </row>
@@ -39293,11 +39279,11 @@
         <v>136</v>
       </c>
       <c r="F301" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G301" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.973194444443</v>
       </c>
     </row>
@@ -39318,11 +39304,11 @@
         <v>136</v>
       </c>
       <c r="F302" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G302" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.930138888885</v>
       </c>
     </row>
@@ -39343,11 +39329,11 @@
         <v>153</v>
       </c>
       <c r="F303" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4014:itc</v>
       </c>
       <c r="G303" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.913483796299</v>
       </c>
     </row>
@@ -39368,11 +39354,11 @@
         <v>119</v>
       </c>
       <c r="F304" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G304" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.167893518519</v>
       </c>
     </row>
@@ -39393,11 +39379,11 @@
         <v>169</v>
       </c>
       <c r="F305" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G305" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.901504629626</v>
       </c>
     </row>
@@ -39418,11 +39404,11 @@
         <v>119</v>
       </c>
       <c r="F306" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4018:itc</v>
       </c>
       <c r="G306" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.285462962966</v>
       </c>
     </row>
@@ -39443,11 +39429,11 @@
         <v>136</v>
       </c>
       <c r="F307" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G307" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.88795138889</v>
       </c>
     </row>
@@ -39468,11 +39454,11 @@
         <v>160</v>
       </c>
       <c r="F308" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4029:itc</v>
       </c>
       <c r="G308" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.487696759257</v>
       </c>
     </row>
@@ -39493,11 +39479,11 @@
         <v>136</v>
       </c>
       <c r="F309" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4011:itc</v>
       </c>
       <c r="G309" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.846215277779</v>
       </c>
     </row>
@@ -39518,11 +39504,11 @@
         <v>120</v>
       </c>
       <c r="F310" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G310" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.545358796298</v>
       </c>
     </row>
@@ -39543,11 +39529,11 @@
         <v>144</v>
       </c>
       <c r="F311" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4044:itc</v>
       </c>
       <c r="G311" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.810833333337</v>
       </c>
     </row>
@@ -39568,11 +39554,11 @@
         <v>164</v>
       </c>
       <c r="F312" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4020:itc</v>
       </c>
       <c r="G312" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.528495370374</v>
       </c>
     </row>
@@ -39593,11 +39579,11 @@
         <v>136</v>
       </c>
       <c r="F313" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4012:itc</v>
       </c>
       <c r="G313" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.807604166665</v>
       </c>
     </row>
@@ -39618,11 +39604,11 @@
         <v>143</v>
       </c>
       <c r="F314" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4030:itc</v>
       </c>
       <c r="G314" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.449074074073</v>
       </c>
     </row>
@@ -39643,11 +39629,11 @@
         <v>206</v>
       </c>
       <c r="F315" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4007:itc</v>
       </c>
       <c r="G315" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.789699074077</v>
       </c>
     </row>
@@ -39668,11 +39654,11 @@
         <v>161</v>
       </c>
       <c r="F316" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4032:itc</v>
       </c>
       <c r="G316" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.485671296294</v>
       </c>
     </row>
@@ -39693,11 +39679,11 @@
         <v>169</v>
       </c>
       <c r="F317" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4028:itc</v>
       </c>
       <c r="G317" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.775567129633</v>
       </c>
     </row>
@@ -39718,11 +39704,11 @@
         <v>204</v>
       </c>
       <c r="F318" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4039:itc</v>
       </c>
       <c r="G318" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.457928240743</v>
       </c>
     </row>
@@ -39743,11 +39729,11 @@
         <v>165</v>
       </c>
       <c r="F319" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4013:itc</v>
       </c>
       <c r="G319" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42554.64980324074</v>
       </c>
     </row>
@@ -39768,11 +39754,11 @@
         <v>120</v>
       </c>
       <c r="F320" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4027:itc</v>
       </c>
       <c r="G320" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.511192129627</v>
       </c>
     </row>
@@ -39793,2231 +39779,2231 @@
         <v>205</v>
       </c>
       <c r="F321" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>rtdc.l.rtdc.4017:itc</v>
       </c>
       <c r="G321" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42555.544722222221</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F322" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G322" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F323" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G323" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F324" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G324" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F325" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G325" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F326" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G326" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F327" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G327" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F328" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G328" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F329" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G329" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F330" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G330" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F331" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G331" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F332" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G332" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F333" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G333" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F334" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G334" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F335" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G335" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F336" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G336" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F337" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G337" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F338" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G338" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F339" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G339" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F340" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G340" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F341" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G341" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F342" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G342" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F343" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G343" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F344" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G344" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F345" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G345" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F346" s="33">
-        <f t="shared" ref="F346:F409" si="2">B346</f>
+        <f t="shared" ref="F346:F409" si="12">B346</f>
         <v>0</v>
       </c>
       <c r="G346" s="8">
-        <f t="shared" ref="G346:G409" si="3">A346</f>
+        <f t="shared" ref="G346:G409" si="13">A346</f>
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F347" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G347" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F348" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G348" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F349" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G349" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F350" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G350" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F351" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G351" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F352" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G352" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F353" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G353" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F354" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G354" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F355" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G355" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F356" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G356" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F357" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G357" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F358" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G358" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F359" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G359" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F360" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G360" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F361" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G361" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F362" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G362" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F363" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G363" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F364" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G364" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F365" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G365" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F366" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G366" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F367" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G367" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F368" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G368" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F369" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G369" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F370" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G370" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F371" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G371" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F372" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G372" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F373" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G373" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F374" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G374" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F375" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G375" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F376" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G376" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F377" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G377" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F378" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G378" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F379" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G379" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F380" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G380" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F381" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G381" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F382" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G382" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F383" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G383" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F384" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G384" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F385" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G385" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F386" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G386" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F387" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G387" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F388" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G388" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F389" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G389" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F390" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G390" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F391" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G391" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F392" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G392" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F393" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G393" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F394" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G394" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F395" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G395" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F396" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G396" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F397" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G397" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F398" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G398" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F399" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G399" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F400" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G400" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F401" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G401" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F402" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G402" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F403" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G403" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F404" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G404" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F405" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G405" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F406" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G406" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F407" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G407" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F408" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G408" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F409" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G409" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F410" s="33">
-        <f t="shared" ref="F410:F473" si="4">B410</f>
+        <f t="shared" ref="F410:F473" si="14">B410</f>
         <v>0</v>
       </c>
       <c r="G410" s="8">
-        <f t="shared" ref="G410:G473" si="5">A410</f>
+        <f t="shared" ref="G410:G473" si="15">A410</f>
         <v>0</v>
       </c>
     </row>
     <row r="411" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F411" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G411" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F412" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G412" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F413" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G413" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F414" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G414" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F415" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G415" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F416" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G416" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F417" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G417" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F418" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G418" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F419" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G419" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F420" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G420" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F421" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G421" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F422" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G422" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F423" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G423" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F424" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G424" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="425" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F425" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G425" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F426" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G426" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F427" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G427" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F428" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G428" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="429" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F429" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G429" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="430" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F430" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G430" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="431" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F431" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G431" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="432" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F432" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G432" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="433" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F433" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G433" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="434" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F434" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G434" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="435" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F435" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G435" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="436" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F436" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G436" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="437" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F437" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G437" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="438" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F438" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G438" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="439" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F439" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G439" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="440" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F440" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G440" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="441" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F441" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G441" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="442" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F442" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G442" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="443" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F443" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G443" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="444" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F444" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G444" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="445" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F445" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G445" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="446" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F446" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G446" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="447" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F447" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G447" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="448" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F448" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G448" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="449" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F449" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G449" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="450" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F450" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G450" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="451" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F451" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G451" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="452" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F452" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G452" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="453" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F453" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G453" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="454" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F454" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G454" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="455" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F455" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G455" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="456" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F456" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G456" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="457" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F457" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G457" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="458" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F458" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G458" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="459" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F459" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G459" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="460" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F460" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G460" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="461" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F461" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G461" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="462" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F462" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G462" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="463" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F463" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G463" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="464" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F464" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G464" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F465" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G465" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="466" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F466" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G466" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="467" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F467" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G467" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="468" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F468" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G468" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F469" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G469" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="470" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F470" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G470" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="471" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F471" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G471" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="472" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F472" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G472" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F473" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G473" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F474" s="33">
-        <f t="shared" ref="F474:F537" si="6">B474</f>
+        <f t="shared" ref="F474:F537" si="16">B474</f>
         <v>0</v>
       </c>
       <c r="G474" s="8">
-        <f t="shared" ref="G474:G537" si="7">A474</f>
+        <f t="shared" ref="G474:G537" si="17">A474</f>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F475" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G475" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F476" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G476" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F477" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G477" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F478" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G478" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F479" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G479" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F480" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G480" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F481" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G481" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F482" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G482" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F483" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G483" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F484" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G484" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F485" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G485" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F486" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G486" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F487" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G487" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F488" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G488" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F489" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G489" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F490" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G490" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F491" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G491" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F492" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G492" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F493" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G493" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F494" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G494" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F495" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G495" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F496" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G496" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="497" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F497" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G497" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F498" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G498" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F499" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G499" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F500" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G500" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F501" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G501" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F502" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G502" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="503" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F503" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G503" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="504" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F504" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G504" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="505" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F505" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G505" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="506" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F506" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G506" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="507" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F507" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G507" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="508" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F508" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G508" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="509" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F509" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G509" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="510" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F510" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G510" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="511" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F511" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G511" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="512" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F512" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G512" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="513" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F513" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G513" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="514" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F514" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G514" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="515" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F515" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G515" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="516" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F516" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G516" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="517" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F517" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G517" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="518" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F518" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G518" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="519" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F519" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G519" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="520" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F520" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G520" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="521" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F521" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G521" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="522" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F522" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G522" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="523" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F523" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G523" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="524" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F524" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G524" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="525" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F525" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G525" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="526" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F526" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G526" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="527" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F527" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G527" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="528" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F528" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G528" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="529" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F529" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G529" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="530" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F530" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G530" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="531" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F531" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G531" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="532" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F532" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G532" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="533" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F533" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G533" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="534" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F534" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G534" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="535" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F535" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G535" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="536" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F536" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G536" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="537" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F537" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G537" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="538" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F538" s="33">
-        <f t="shared" ref="F538:F543" si="8">B538</f>
+        <f t="shared" ref="F538:F543" si="18">B538</f>
         <v>0</v>
       </c>
       <c r="G538" s="8">
-        <f t="shared" ref="G538:G543" si="9">A538</f>
+        <f t="shared" ref="G538:G543" si="19">A538</f>
         <v>0</v>
       </c>
     </row>
     <row r="539" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F539" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G539" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="540" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F540" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G540" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="541" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F541" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G541" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="542" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F542" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G542" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="543" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F543" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G543" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
